--- a/results/mp/deberta/corona/confidence/42/stop-words-desired-0.15/homogenity_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-desired-0.15/homogenity_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="999">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="999">
   <si>
     <t>anchor score</t>
   </si>
@@ -310,526 +310,526 @@
     <t>shame</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>safely</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>benefits</t>
+  </si>
+  <si>
+    <t>offering</t>
+  </si>
+  <si>
+    <t>chance</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>products</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>welcome</t>
+  </si>
+  <si>
+    <t>appreciate</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>helpful</t>
+  </si>
+  <si>
+    <t>shares</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>excited</t>
+  </si>
+  <si>
+    <t>dow</t>
+  </si>
+  <si>
+    <t>benefit</t>
+  </si>
+  <si>
+    <t>laugh</t>
+  </si>
+  <si>
+    <t>supporting</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>dedicated</t>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>numbers</t>
+  </si>
+  <si>
+    <t>pretty</t>
+  </si>
+  <si>
+    <t>hopefully</t>
+  </si>
+  <si>
+    <t>stays</t>
+  </si>
+  <si>
+    <t>updated</t>
+  </si>
+  <si>
+    <t>luck</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>toronto</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>handy</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>bakery</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>asset</t>
+  </si>
+  <si>
+    <t>listen</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>allow</t>
+  </si>
+  <si>
+    <t>incredible</t>
+  </si>
+  <si>
+    <t>tool</t>
+  </si>
+  <si>
+    <t>investing</t>
+  </si>
+  <si>
+    <t>highlight</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>cares</t>
+  </si>
+  <si>
+    <t>ease</t>
+  </si>
+  <si>
+    <t>bright</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>feels</t>
+  </si>
+  <si>
+    <t>recipe</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>secure</t>
+  </si>
+  <si>
+    <t>nyc</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>rich</t>
+  </si>
+  <si>
+    <t>solutions</t>
+  </si>
+  <si>
+    <t>launched</t>
+  </si>
+  <si>
+    <t>groceries</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>meals</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>volunteer</t>
+  </si>
+  <si>
+    <t>mumbai</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>sunday</t>
+  </si>
+  <si>
+    <t>residents</t>
+  </si>
+  <si>
+    <t>significant</t>
+  </si>
+  <si>
+    <t>ac</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>greater</t>
+  </si>
+  <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>card</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>adapt</t>
+  </si>
+  <si>
+    <t>says</t>
+  </si>
+  <si>
+    <t>comfort</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>fine</t>
+  </si>
+  <si>
+    <t>fiscal</t>
+  </si>
+  <si>
+    <t>tuesday</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>sentiment</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>hero</t>
+  </si>
+  <si>
+    <t>clearly</t>
+  </si>
+  <si>
+    <t>front</t>
+  </si>
+  <si>
+    <t>etc</t>
+  </si>
+  <si>
+    <t>future</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>safely</t>
-  </si>
-  <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>benefits</t>
-  </si>
-  <si>
-    <t>offering</t>
-  </si>
-  <si>
-    <t>chance</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>products</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>welcome</t>
-  </si>
-  <si>
-    <t>appreciate</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>helpful</t>
-  </si>
-  <si>
-    <t>shares</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>excited</t>
-  </si>
-  <si>
-    <t>dow</t>
-  </si>
-  <si>
-    <t>benefit</t>
-  </si>
-  <si>
-    <t>laugh</t>
-  </si>
-  <si>
-    <t>supporting</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>insights</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>dedicated</t>
-  </si>
-  <si>
-    <t>course</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>financial</t>
-  </si>
-  <si>
-    <t>numbers</t>
-  </si>
-  <si>
-    <t>pretty</t>
-  </si>
-  <si>
-    <t>hopefully</t>
-  </si>
-  <si>
-    <t>stays</t>
-  </si>
-  <si>
-    <t>updated</t>
-  </si>
-  <si>
-    <t>luck</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>toronto</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>handy</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>bakery</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>asset</t>
-  </si>
-  <si>
-    <t>listen</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>allow</t>
-  </si>
-  <si>
-    <t>incredible</t>
-  </si>
-  <si>
-    <t>tool</t>
-  </si>
-  <si>
-    <t>investing</t>
-  </si>
-  <si>
-    <t>highlight</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>cares</t>
-  </si>
-  <si>
-    <t>ease</t>
-  </si>
-  <si>
-    <t>bright</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>feels</t>
-  </si>
-  <si>
-    <t>recipe</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>secure</t>
-  </si>
-  <si>
-    <t>nyc</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>rich</t>
-  </si>
-  <si>
-    <t>solutions</t>
-  </si>
-  <si>
-    <t>launched</t>
-  </si>
-  <si>
-    <t>groceries</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>meals</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>volunteer</t>
-  </si>
-  <si>
-    <t>mumbai</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>sunday</t>
-  </si>
-  <si>
-    <t>residents</t>
-  </si>
-  <si>
-    <t>significant</t>
-  </si>
-  <si>
-    <t>ac</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>greater</t>
-  </si>
-  <si>
-    <t>insurance</t>
-  </si>
-  <si>
-    <t>card</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>adapt</t>
-  </si>
-  <si>
-    <t>says</t>
-  </si>
-  <si>
-    <t>comfort</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>fine</t>
-  </si>
-  <si>
-    <t>fiscal</t>
-  </si>
-  <si>
-    <t>tuesday</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>sentiment</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>hero</t>
-  </si>
-  <si>
-    <t>clearly</t>
-  </si>
-  <si>
-    <t>front</t>
-  </si>
-  <si>
-    <t>etc</t>
-  </si>
-  <si>
-    <t>future</t>
   </si>
   <si>
     <t>corona</t>
@@ -3379,7 +3379,7 @@
         <v>61</v>
       </c>
       <c r="J1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3437,7 +3437,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.03781930976909451</v>
+        <v>0.03857432871765875</v>
       </c>
       <c r="C3">
         <v>208</v>
@@ -3458,28 +3458,28 @@
         <v>84</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>101</v>
+        <v>270</v>
       </c>
       <c r="K3">
-        <v>0.004118220050003125</v>
+        <v>0.007391832199561664</v>
       </c>
       <c r="L3">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="M3">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="N3">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>176</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3487,7 +3487,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.01387589313818081</v>
+        <v>0.01415290935850698</v>
       </c>
       <c r="C4">
         <v>28</v>
@@ -3508,28 +3508,28 @@
         <v>488</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>107</v>
+        <v>271</v>
       </c>
       <c r="K4">
-        <v>0.003960406446218366</v>
+        <v>0.006728481710986562</v>
       </c>
       <c r="L4">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="M4">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="N4">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>2949</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3537,7 +3537,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.01284658076962382</v>
+        <v>0.01310304795436481</v>
       </c>
       <c r="C5">
         <v>24</v>
@@ -3558,28 +3558,28 @@
         <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>272</v>
+        <v>99</v>
       </c>
       <c r="K5">
-        <v>0.003918036323467421</v>
+        <v>0.004118220050003125</v>
       </c>
       <c r="L5">
-        <v>59</v>
+        <v>205</v>
       </c>
       <c r="M5">
-        <v>59</v>
+        <v>207</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>3142</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3587,7 +3587,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01172727012389174</v>
+        <v>0.01196139156112921</v>
       </c>
       <c r="C6">
         <v>20</v>
@@ -3608,28 +3608,28 @@
         <v>16</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>273</v>
+        <v>105</v>
       </c>
       <c r="K6">
-        <v>0.003606844791387773</v>
+        <v>0.003960406446218366</v>
       </c>
       <c r="L6">
-        <v>50</v>
+        <v>157</v>
       </c>
       <c r="M6">
-        <v>50</v>
+        <v>158</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3637,7 +3637,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01048918927500972</v>
+        <v>0.0106985938544709</v>
       </c>
       <c r="C7">
         <v>16</v>
@@ -3658,16 +3658,16 @@
         <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K7">
-        <v>0.003144374390139068</v>
+        <v>0.003918036323467421</v>
       </c>
       <c r="L7">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="M7">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>3142</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3687,7 +3687,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.009454827442273626</v>
+        <v>0.009643582179414687</v>
       </c>
       <c r="C8">
         <v>13</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>109</v>
+        <v>273</v>
       </c>
       <c r="K8">
-        <v>0.003129092634427864</v>
+        <v>0.003606844791387773</v>
       </c>
       <c r="L8">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="M8">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="N8">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3737,7 +3737,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.0090839043772617</v>
+        <v>0.009265254062743873</v>
       </c>
       <c r="C9">
         <v>12</v>
@@ -3758,28 +3758,28 @@
         <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>108</v>
+        <v>274</v>
       </c>
       <c r="K9">
-        <v>0.003129092634427864</v>
+        <v>0.003144374390139068</v>
       </c>
       <c r="L9">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="M9">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="N9">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3787,7 +3787,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.008697176295056808</v>
+        <v>0.00887080539992053</v>
       </c>
       <c r="C10">
         <v>11</v>
@@ -3808,25 +3808,25 @@
         <v>64</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>275</v>
+        <v>107</v>
       </c>
       <c r="K10">
-        <v>0.003060509292813207</v>
+        <v>0.003129092634427864</v>
       </c>
       <c r="L10">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="M10">
-        <v>36</v>
+        <v>114</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
         <v>28</v>
@@ -3837,7 +3837,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.007866891956257293</v>
+        <v>0.008023945390853174</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -3858,28 +3858,28 @@
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>276</v>
+        <v>106</v>
       </c>
       <c r="K11">
-        <v>0.003017702858866786</v>
+        <v>0.003129092634427864</v>
       </c>
       <c r="L11">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="M11">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3887,7 +3887,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.007866891956257293</v>
+        <v>0.008023945390853174</v>
       </c>
       <c r="C12">
         <v>9</v>
@@ -3908,16 +3908,16 @@
         <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K12">
-        <v>0.002930214560479544</v>
+        <v>0.003060509292813207</v>
       </c>
       <c r="L12">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M12">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -3929,7 +3929,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3937,7 +3937,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.007866891956257293</v>
+        <v>0.008023945390853174</v>
       </c>
       <c r="C13">
         <v>9</v>
@@ -3958,16 +3958,16 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K13">
-        <v>0.002650478796094584</v>
+        <v>0.003017702858866786</v>
       </c>
       <c r="L13">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="M13">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3987,7 +3987,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.006937946569090405</v>
+        <v>0.007076454679253489</v>
       </c>
       <c r="C14">
         <v>7</v>
@@ -4008,16 +4008,16 @@
         <v>12</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K14">
-        <v>0.002600932767597766</v>
+        <v>0.002930214560479544</v>
       </c>
       <c r="L14">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M14">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -4029,7 +4029,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -4037,7 +4037,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.006423290384811909</v>
+        <v>0.006551523977182403</v>
       </c>
       <c r="C15">
         <v>6</v>
@@ -4058,16 +4058,16 @@
         <v>20</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K15">
-        <v>0.002600932767597766</v>
+        <v>0.002650478796094584</v>
       </c>
       <c r="L15">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M15">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -4087,7 +4087,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.006423290384811909</v>
+        <v>0.006551523977182403</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -4108,7 +4108,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K16">
         <v>0.002600932767597766</v>
@@ -4129,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -4137,7 +4137,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.006423290384811909</v>
+        <v>0.006551523977182403</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -4158,16 +4158,16 @@
         <v>25</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K17">
-        <v>0.002550424410677672</v>
+        <v>0.002600932767597766</v>
       </c>
       <c r="L17">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M17">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -4187,7 +4187,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.006423290384811909</v>
+        <v>0.006551523977182403</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -4208,16 +4208,16 @@
         <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K18">
-        <v>0.002550424410677672</v>
+        <v>0.002600932767597766</v>
       </c>
       <c r="L18">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M18">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -4229,7 +4229,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>90</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -4237,7 +4237,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.006423290384811909</v>
+        <v>0.006551523977182403</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -4258,16 +4258,16 @@
         <v>6</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K19">
-        <v>0.002446281157310849</v>
+        <v>0.002550424410677672</v>
       </c>
       <c r="L19">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M19">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -4279,7 +4279,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>4</v>
+        <v>842</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -4287,7 +4287,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.006423290384811909</v>
+        <v>0.006551523977182403</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -4308,16 +4308,16 @@
         <v>3</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K20">
-        <v>0.002446281157310849</v>
+        <v>0.002550424410677672</v>
       </c>
       <c r="L20">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M20">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -4329,7 +4329,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -4337,7 +4337,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.006423290384811909</v>
+        <v>0.006551523977182403</v>
       </c>
       <c r="C21">
         <v>6</v>
@@ -4358,7 +4358,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K21">
         <v>0.002446281157310849</v>
@@ -4379,7 +4379,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>120</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -4387,7 +4387,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.006423290384811909</v>
+        <v>0.006551523977182403</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -4408,16 +4408,16 @@
         <v>4</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K22">
-        <v>0.002337502583238715</v>
+        <v>0.002446281157310849</v>
       </c>
       <c r="L22">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M22">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -4429,7 +4429,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>38</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -4437,7 +4437,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.006423290384811909</v>
+        <v>0.006551523977182403</v>
       </c>
       <c r="C23">
         <v>6</v>
@@ -4458,16 +4458,16 @@
         <v>1</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K23">
-        <v>0.002281168941500046</v>
+        <v>0.002446281157310849</v>
       </c>
       <c r="L23">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M23">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -4479,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>2</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -4487,7 +4487,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.00586363506194587</v>
+        <v>0.005980695780564606</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -4508,16 +4508,16 @@
         <v>2</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K24">
-        <v>0.002281168941500046</v>
+        <v>0.002337502583238715</v>
       </c>
       <c r="L24">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M24">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -4529,7 +4529,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>58</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -4537,7 +4537,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.00586363506194587</v>
+        <v>0.005980695780564606</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -4558,28 +4558,28 @@
         <v>29</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>99</v>
+        <v>288</v>
       </c>
       <c r="K25">
-        <v>0.00225685333802973</v>
+        <v>0.002281168941500046</v>
       </c>
       <c r="L25">
-        <v>189</v>
+        <v>20</v>
       </c>
       <c r="M25">
-        <v>198</v>
+        <v>20</v>
       </c>
       <c r="N25">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>97</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -4587,7 +4587,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.00586363506194587</v>
+        <v>0.005980695780564606</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -4608,28 +4608,28 @@
         <v>1</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>102</v>
+        <v>289</v>
       </c>
       <c r="K26">
-        <v>0.00223240521757054</v>
+        <v>0.002281168941500046</v>
       </c>
       <c r="L26">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="M26">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="N26">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -4637,7 +4637,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.00586363506194587</v>
+        <v>0.005980695780564606</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -4658,28 +4658,28 @@
         <v>3</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="K27">
-        <v>0.002224853944711186</v>
+        <v>0.00225685333802973</v>
       </c>
       <c r="L27">
-        <v>72</v>
+        <v>189</v>
       </c>
       <c r="M27">
-        <v>73</v>
+        <v>198</v>
       </c>
       <c r="N27">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="O27">
-        <v>0.01000000000000001</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P27" t="b">
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>142</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -4687,7 +4687,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.00586363506194587</v>
+        <v>0.005980695780564606</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -4708,28 +4708,28 @@
         <v>2</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>290</v>
+        <v>100</v>
       </c>
       <c r="K28">
-        <v>0.00222340845385665</v>
+        <v>0.00223240521757054</v>
       </c>
       <c r="L28">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="M28">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -4737,7 +4737,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.00586363506194587</v>
+        <v>0.005980695780564606</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -4758,28 +4758,28 @@
         <v>11</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>291</v>
+        <v>111</v>
       </c>
       <c r="K29">
-        <v>0.00222340845385665</v>
+        <v>0.002224853944711186</v>
       </c>
       <c r="L29">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="M29">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="N29">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29">
-        <v>16</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -4787,7 +4787,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.00586363506194587</v>
+        <v>0.005980695780564606</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -4808,7 +4808,7 @@
         <v>8</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K30">
         <v>0.00222340845385665</v>
@@ -4829,7 +4829,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>112</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -4837,7 +4837,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.00586363506194587</v>
+        <v>0.005980695780564606</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -4858,16 +4858,16 @@
         <v>20</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K31">
-        <v>0.002164106874832663</v>
+        <v>0.00222340845385665</v>
       </c>
       <c r="L31">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M31">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -4879,7 +4879,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -4887,7 +4887,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.00586363506194587</v>
+        <v>0.005980695780564606</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -4908,28 +4908,28 @@
         <v>17</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>104</v>
+        <v>292</v>
       </c>
       <c r="K32">
-        <v>0.002128842708721801</v>
+        <v>0.00222340845385665</v>
       </c>
       <c r="L32">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="M32">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="N32">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>11</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -4937,7 +4937,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.005244594637504862</v>
+        <v>0.00534929692723545</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -4958,16 +4958,16 @@
         <v>3</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K33">
-        <v>0.002103133847075543</v>
+        <v>0.002164106874832663</v>
       </c>
       <c r="L33">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M33">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -4979,7 +4979,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -4987,7 +4987,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.005244594637504862</v>
+        <v>0.00534929692723545</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -5008,28 +5008,28 @@
         <v>4</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>295</v>
+        <v>102</v>
       </c>
       <c r="K34">
-        <v>0.002103133847075543</v>
+        <v>0.002128842708721801</v>
       </c>
       <c r="L34">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="M34">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -5037,7 +5037,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.005244594637504862</v>
+        <v>0.00534929692723545</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -5058,16 +5058,16 @@
         <v>73</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K35">
-        <v>0.002040339528542138</v>
+        <v>0.002103133847075543</v>
       </c>
       <c r="L35">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M35">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -5079,7 +5079,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>97</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -5087,7 +5087,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.005244594637504862</v>
+        <v>0.00534929692723545</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -5108,16 +5108,16 @@
         <v>26</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K36">
-        <v>0.001975550253663098</v>
+        <v>0.002103133847075543</v>
       </c>
       <c r="L36">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M36">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -5129,7 +5129,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>94</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -5137,7 +5137,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.00454195218863085</v>
+        <v>0.004632627031371937</v>
       </c>
       <c r="C37">
         <v>3</v>
@@ -5158,16 +5158,16 @@
         <v>48</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K37">
-        <v>0.001975550253663098</v>
+        <v>0.002040339528542138</v>
       </c>
       <c r="L37">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M37">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -5179,7 +5179,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -5187,7 +5187,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.00454195218863085</v>
+        <v>0.004632627031371937</v>
       </c>
       <c r="C38">
         <v>3</v>
@@ -5208,7 +5208,7 @@
         <v>8</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K38">
         <v>0.001975550253663098</v>
@@ -5229,7 +5229,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>8</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -5237,7 +5237,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.00454195218863085</v>
+        <v>0.004632627031371937</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -5258,7 +5258,7 @@
         <v>13</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K39">
         <v>0.001975550253663098</v>
@@ -5279,7 +5279,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -5287,7 +5287,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.00454195218863085</v>
+        <v>0.004632627031371937</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -5308,7 +5308,7 @@
         <v>3</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K40">
         <v>0.001975550253663098</v>
@@ -5329,7 +5329,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>252</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -5337,7 +5337,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.00454195218863085</v>
+        <v>0.004632627031371937</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -5358,7 +5358,7 @@
         <v>9</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K41">
         <v>0.001975550253663098</v>
@@ -5379,7 +5379,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>67</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -5387,7 +5387,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.00454195218863085</v>
+        <v>0.004632627031371937</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -5408,7 +5408,7 @@
         <v>6</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K42">
         <v>0.001975550253663098</v>
@@ -5429,7 +5429,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>34</v>
+        <v>252</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -5437,7 +5437,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.00454195218863085</v>
+        <v>0.004632627031371937</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -5458,7 +5458,7 @@
         <v>23</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K43">
         <v>0.001975550253663098</v>
@@ -5479,7 +5479,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -5487,7 +5487,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.00454195218863085</v>
+        <v>0.004632627031371937</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -5508,7 +5508,7 @@
         <v>12</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K44">
         <v>0.001975550253663098</v>
@@ -5529,7 +5529,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>76</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -5537,7 +5537,7 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.003708488432754291</v>
+        <v>0.003782524131828548</v>
       </c>
       <c r="C45">
         <v>2</v>
@@ -5558,28 +5558,28 @@
         <v>28</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>106</v>
+        <v>304</v>
       </c>
       <c r="K45">
-        <v>0.001965592282685793</v>
+        <v>0.001975550253663098</v>
       </c>
       <c r="L45">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="M45">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="N45">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -5587,7 +5587,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.003708488432754291</v>
+        <v>0.003782524131828548</v>
       </c>
       <c r="C46">
         <v>2</v>
@@ -5608,16 +5608,16 @@
         <v>19</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K46">
-        <v>0.001908562867124138</v>
+        <v>0.001975550253663098</v>
       </c>
       <c r="L46">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M46">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -5629,7 +5629,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>553</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -5637,7 +5637,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.003708488432754291</v>
+        <v>0.003782524131828548</v>
       </c>
       <c r="C47">
         <v>2</v>
@@ -5658,28 +5658,28 @@
         <v>37</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>307</v>
+        <v>104</v>
       </c>
       <c r="K47">
-        <v>0.001908562867124138</v>
+        <v>0.001965592282685793</v>
       </c>
       <c r="L47">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="M47">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -5687,7 +5687,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.003708488432754291</v>
+        <v>0.003782524131828548</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -5708,7 +5708,7 @@
         <v>30</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K48">
         <v>0.001908562867124138</v>
@@ -5729,7 +5729,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>10</v>
+        <v>553</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -5737,7 +5737,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.003708488432754291</v>
+        <v>0.003782524131828548</v>
       </c>
       <c r="C49">
         <v>2</v>
@@ -5758,7 +5758,7 @@
         <v>4</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K49">
         <v>0.001908562867124138</v>
@@ -5779,7 +5779,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -5787,7 +5787,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.003708488432754291</v>
+        <v>0.003782524131828548</v>
       </c>
       <c r="C50">
         <v>2</v>
@@ -5808,7 +5808,7 @@
         <v>5</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K50">
         <v>0.001908562867124138</v>
@@ -5829,7 +5829,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -5837,7 +5837,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.003708488432754291</v>
+        <v>0.003782524131828548</v>
       </c>
       <c r="C51">
         <v>2</v>
@@ -5858,7 +5858,7 @@
         <v>18</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K51">
         <v>0.001908562867124138</v>
@@ -5879,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -5887,7 +5887,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.003708488432754291</v>
+        <v>0.003782524131828548</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -5908,16 +5908,16 @@
         <v>53</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K52">
-        <v>0.001839137197378675</v>
+        <v>0.001908562867124138</v>
       </c>
       <c r="L52">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M52">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -5929,7 +5929,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -5937,7 +5937,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.003708488432754291</v>
+        <v>0.003782524131828548</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -5958,16 +5958,16 @@
         <v>9</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K53">
-        <v>0.001839137197378675</v>
+        <v>0.001908562867124138</v>
       </c>
       <c r="L53">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M53">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -5979,7 +5979,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>44</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -5987,7 +5987,7 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.003708488432754291</v>
+        <v>0.003782524131828548</v>
       </c>
       <c r="C54">
         <v>2</v>
@@ -6008,28 +6008,28 @@
         <v>22</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>98</v>
+        <v>312</v>
       </c>
       <c r="K54">
-        <v>0.001822934567547082</v>
+        <v>0.001839137197378675</v>
       </c>
       <c r="L54">
-        <v>210</v>
+        <v>13</v>
       </c>
       <c r="M54">
-        <v>226</v>
+        <v>13</v>
       </c>
       <c r="N54">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -6037,7 +6037,7 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.003708488432754291</v>
+        <v>0.003782524131828548</v>
       </c>
       <c r="C55">
         <v>2</v>
@@ -6058,28 +6058,28 @@
         <v>147</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>115</v>
+        <v>313</v>
       </c>
       <c r="K55">
-        <v>0.001819884803849694</v>
+        <v>0.001839137197378675</v>
       </c>
       <c r="L55">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M55">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="N55">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>2</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -6087,7 +6087,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.003708488432754291</v>
+        <v>0.003782524131828548</v>
       </c>
       <c r="C56">
         <v>2</v>
@@ -6108,28 +6108,28 @@
         <v>9</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>314</v>
+        <v>113</v>
       </c>
       <c r="K56">
-        <v>0.001766985864063056</v>
+        <v>0.001819884803849694</v>
       </c>
       <c r="L56">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="M56">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -6137,7 +6137,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.003708488432754291</v>
+        <v>0.003782524131828548</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -6158,7 +6158,7 @@
         <v>5</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K57">
         <v>0.001766985864063056</v>
@@ -6179,7 +6179,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>173</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -6187,7 +6187,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.002622297318752431</v>
+        <v>0.002674648463617725</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -6208,7 +6208,7 @@
         <v>11</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K58">
         <v>0.001766985864063056</v>
@@ -6229,7 +6229,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>1</v>
+        <v>173</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -6237,7 +6237,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.002622297318752431</v>
+        <v>0.002674648463617725</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -6258,7 +6258,7 @@
         <v>37</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K59">
         <v>0.001766985864063056</v>
@@ -6287,7 +6287,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.002622297318752431</v>
+        <v>0.002674648463617725</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -6308,7 +6308,7 @@
         <v>6</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K60">
         <v>0.001766985864063056</v>
@@ -6329,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -6337,7 +6337,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.002622297318752431</v>
+        <v>0.002674648463617725</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -6358,7 +6358,7 @@
         <v>18</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K61">
         <v>0.001766985864063056</v>
@@ -6379,7 +6379,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>89</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -6387,7 +6387,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.002622297318752431</v>
+        <v>0.002674648463617725</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -6408,7 +6408,7 @@
         <v>6</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K62">
         <v>0.001766985864063056</v>
@@ -6429,7 +6429,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>104</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -6437,7 +6437,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.002622297318752431</v>
+        <v>0.002674648463617725</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -6458,28 +6458,28 @@
         <v>12</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>100</v>
+        <v>320</v>
       </c>
       <c r="K63">
-        <v>0.001765377514919266</v>
+        <v>0.001766985864063056</v>
       </c>
       <c r="L63">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="M63">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="N63">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O63">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>53</v>
+        <v>104</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -6487,7 +6487,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.002622297318752431</v>
+        <v>0.002674648463617725</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -6537,7 +6537,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.002622297318752431</v>
+        <v>0.002674648463617725</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -6587,7 +6587,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.002622297318752431</v>
+        <v>0.002674648463617725</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -6637,7 +6637,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.002622297318752431</v>
+        <v>0.002674648463617725</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -6687,7 +6687,7 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.002622297318752431</v>
+        <v>0.002674648463617725</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -6737,7 +6737,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.002622297318752431</v>
+        <v>0.002674648463617725</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -6787,7 +6787,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.002622297318752431</v>
+        <v>0.002674648463617725</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -6837,7 +6837,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.002622297318752431</v>
+        <v>0.002674648463617725</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -6887,7 +6887,7 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.002622297318752431</v>
+        <v>0.002674648463617725</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -6908,7 +6908,7 @@
         <v>7</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K72">
         <v>0.001681428203384513</v>
@@ -6937,7 +6937,7 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.002622297318752431</v>
+        <v>0.002674648463617725</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -6958,7 +6958,7 @@
         <v>14</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K73">
         <v>0.001679401307734911</v>
@@ -6987,7 +6987,7 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.002622297318752431</v>
+        <v>0.002674648463617725</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -7037,7 +7037,7 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.002622297318752431</v>
+        <v>0.002674648463617725</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -7087,7 +7087,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.002622297318752431</v>
+        <v>0.002674648463617725</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -7137,7 +7137,7 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.002622297318752431</v>
+        <v>0.002674648463617725</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -7187,7 +7187,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.002622297318752431</v>
+        <v>0.002674648463617725</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -7237,7 +7237,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.002622297318752431</v>
+        <v>0.002674648463617725</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -7287,7 +7287,7 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.002622297318752431</v>
+        <v>0.002674648463617725</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -7337,7 +7337,7 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.002622297318752431</v>
+        <v>0.002674648463617725</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -7387,7 +7387,7 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.002622297318752431</v>
+        <v>0.002674648463617725</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -7437,7 +7437,7 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.002622297318752431</v>
+        <v>0.002674648463617725</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -7487,7 +7487,7 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.002622297318752431</v>
+        <v>0.002674648463617725</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -7537,7 +7537,7 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.002622297318752431</v>
+        <v>0.002674648463617725</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -7558,7 +7558,7 @@
         <v>19</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K85">
         <v>0.001573711969265388</v>
@@ -7587,7 +7587,7 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.002622297318752431</v>
+        <v>0.002674648463617725</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -7608,7 +7608,7 @@
         <v>14</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K86">
         <v>0.001573711969265388</v>
@@ -7637,7 +7637,7 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.002622297318752431</v>
+        <v>0.002674648463617725</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -7687,7 +7687,7 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.002622297318752431</v>
+        <v>0.002674648463617725</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -7737,7 +7737,7 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.002622297318752431</v>
+        <v>0.002674648463617725</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -7787,7 +7787,7 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.002622297318752431</v>
+        <v>0.002674648463617725</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -7837,7 +7837,7 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.002622297318752431</v>
+        <v>0.002674648463617725</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -7887,7 +7887,7 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.002622297318752431</v>
+        <v>0.002674648463617725</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -7937,25 +7937,25 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.002586788390041273</v>
+        <v>0.002582366905797469</v>
       </c>
       <c r="C93">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D93">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="E93">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="F93">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
       </c>
       <c r="H93">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>346</v>
@@ -7987,25 +7987,25 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.002531821996505769</v>
+        <v>0.002132906773575647</v>
       </c>
       <c r="C94">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D94">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="E94">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="F94">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G94" t="b">
         <v>1</v>
       </c>
       <c r="H94">
-        <v>97</v>
+        <v>176</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>347</v>
@@ -8037,25 +8037,25 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.002383378780551542</v>
+        <v>0.002077425324586439</v>
       </c>
       <c r="C95">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D95">
-        <v>186</v>
+        <v>131</v>
       </c>
       <c r="E95">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F95">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G95" t="b">
         <v>1</v>
       </c>
       <c r="H95">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>348</v>
@@ -8087,25 +8087,25 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.002091159189544887</v>
+        <v>0.001926633905809417</v>
       </c>
       <c r="C96">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D96">
-        <v>207</v>
+        <v>115</v>
       </c>
       <c r="E96">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F96">
-        <v>0.01000000000000001</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G96" t="b">
         <v>1</v>
       </c>
       <c r="H96">
-        <v>176</v>
+        <v>303</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>349</v>
@@ -8137,13 +8137,13 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.002036763684152708</v>
+        <v>0.001877913251761471</v>
       </c>
       <c r="C97">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="E97">
         <v>0.97</v>
@@ -8155,7 +8155,7 @@
         <v>1</v>
       </c>
       <c r="H97">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>350</v>
@@ -8187,25 +8187,25 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.001888923719937368</v>
+        <v>0.001818731773690732</v>
       </c>
       <c r="C98">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D98">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="E98">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F98">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G98" t="b">
         <v>1</v>
       </c>
       <c r="H98">
-        <v>303</v>
+        <v>2045</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>351</v>
@@ -8237,13 +8237,13 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.001841156679813902</v>
+        <v>0.001812560268729882</v>
       </c>
       <c r="C99">
         <v>3</v>
       </c>
       <c r="D99">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E99">
         <v>0.97</v>
@@ -8255,7 +8255,7 @@
         <v>1</v>
       </c>
       <c r="H99">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>352</v>
@@ -8287,28 +8287,28 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.001783133566355922</v>
+        <v>0.001657349837263226</v>
       </c>
       <c r="C100">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D100">
-        <v>98</v>
+        <v>158</v>
       </c>
       <c r="E100">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="F100">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G100" t="b">
         <v>1</v>
       </c>
       <c r="H100">
-        <v>2045</v>
+        <v>2949</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K100">
         <v>0.001459135594526388</v>
@@ -8337,28 +8337,28 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.001777082856839646</v>
+        <v>0.001543488706019649</v>
       </c>
       <c r="C101">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D101">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="E101">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F101">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G101" t="b">
         <v>1</v>
       </c>
       <c r="H101">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K101">
         <v>0.001443237481660365</v>
@@ -8387,13 +8387,13 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.001624910373683895</v>
+        <v>0.001543488706019649</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
       <c r="D102">
-        <v>158</v>
+        <v>114</v>
       </c>
       <c r="E102">
         <v>0.99</v>
@@ -8405,7 +8405,7 @@
         <v>1</v>
       </c>
       <c r="H102">
-        <v>2949</v>
+        <v>28</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>353</v>
@@ -8437,25 +8437,25 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.001513277857025503</v>
+        <v>0.0015218524666512</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D103">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="E103">
-        <v>0.99</v>
+        <v>0.91</v>
       </c>
       <c r="F103">
-        <v>0.01000000000000001</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G103" t="b">
         <v>1</v>
       </c>
       <c r="H103">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>354</v>
@@ -8487,25 +8487,25 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.001513277857025503</v>
+        <v>0.001510216761135971</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D104">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="E104">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="F104">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G104" t="b">
         <v>1</v>
       </c>
       <c r="H104">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>355</v>
@@ -8537,25 +8537,25 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.001492065105796495</v>
+        <v>0.00144646181589912</v>
       </c>
       <c r="C105">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D105">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="E105">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F105">
-        <v>0.08999999999999997</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G105" t="b">
         <v>1</v>
       </c>
       <c r="H105">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>356</v>
@@ -8587,25 +8587,25 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.001480657147035026</v>
+        <v>0.001374863287529582</v>
       </c>
       <c r="C106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D106">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E106">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F106">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G106" t="b">
         <v>1</v>
       </c>
       <c r="H106">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>357</v>
@@ -8637,25 +8637,25 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.001418150083312092</v>
+        <v>0.001323798635714017</v>
       </c>
       <c r="C107">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D107">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="E107">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F107">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G107" t="b">
         <v>1</v>
       </c>
       <c r="H107">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>358</v>
@@ -8687,25 +8687,25 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.001347952959643696</v>
+        <v>0.001275187780927634</v>
       </c>
       <c r="C108">
         <v>1</v>
       </c>
       <c r="D108">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="E108">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="F108">
-        <v>0.01000000000000001</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G108" t="b">
         <v>1</v>
       </c>
       <c r="H108">
-        <v>142</v>
+        <v>2</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>359</v>
@@ -8737,13 +8737,13 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.001297887801040437</v>
+        <v>0.001231711475472642</v>
       </c>
       <c r="C109">
         <v>2</v>
       </c>
       <c r="D109">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E109">
         <v>0.96</v>
@@ -8755,7 +8755,7 @@
         <v>1</v>
       </c>
       <c r="H109">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>360</v>
@@ -8787,13 +8787,13 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.001250228411067306</v>
+        <v>0.001203650987469588</v>
       </c>
       <c r="C110">
         <v>1</v>
       </c>
       <c r="D110">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E110">
         <v>0.98</v>
@@ -8805,7 +8805,7 @@
         <v>1</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>361</v>
@@ -8837,25 +8837,25 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.001207603071410638</v>
+        <v>0.001203650987469588</v>
       </c>
       <c r="C111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D111">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E111">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="F111">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G111" t="b">
         <v>1</v>
       </c>
       <c r="H111">
-        <v>20</v>
+        <v>846</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>362</v>
@@ -8887,25 +8887,25 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.001180091813967196</v>
+        <v>0.001202623717388563</v>
       </c>
       <c r="C112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D112">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E112">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F112">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G112" t="b">
         <v>1</v>
       </c>
       <c r="H112">
-        <v>10</v>
+        <v>858</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>363</v>
@@ -8937,25 +8937,25 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.001180091813967196</v>
+        <v>0.001187549037337912</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D113">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E113">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F113">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G113" t="b">
         <v>1</v>
       </c>
       <c r="H113">
-        <v>846</v>
+        <v>117</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>364</v>
@@ -8987,13 +8987,13 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.001179084650739674</v>
+        <v>0.001172099092366528</v>
       </c>
       <c r="C114">
         <v>2</v>
       </c>
       <c r="D114">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E114">
         <v>0.95</v>
@@ -9005,7 +9005,7 @@
         <v>1</v>
       </c>
       <c r="H114">
-        <v>858</v>
+        <v>56</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>365</v>
@@ -9037,25 +9037,25 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.001164305028813432</v>
+        <v>0.001166771148633545</v>
       </c>
       <c r="C115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D115">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E115">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F115">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G115" t="b">
         <v>1</v>
       </c>
       <c r="H115">
-        <v>117</v>
+        <v>2</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>366</v>
@@ -9087,25 +9087,25 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.001149157487061896</v>
+        <v>0.001153142428536851</v>
       </c>
       <c r="C116">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D116">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E116">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="F116">
-        <v>0.05000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G116" t="b">
         <v>1</v>
       </c>
       <c r="H116">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>367</v>
@@ -9137,25 +9137,25 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.001143933827670572</v>
+        <v>0.001032618431475321</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D117">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E117">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F117">
-        <v>0.02000000000000002</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G117" t="b">
         <v>1</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>383</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>368</v>
@@ -9187,25 +9187,25 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.001130571863788692</v>
+        <v>0.001028497994063283</v>
       </c>
       <c r="C118">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D118">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E118">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="F118">
-        <v>0.08999999999999997</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G118" t="b">
         <v>1</v>
       </c>
       <c r="H118">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>369</v>
@@ -9237,25 +9237,25 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.001012406894208993</v>
+        <v>0.001028497994063283</v>
       </c>
       <c r="C119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D119">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E119">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F119">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G119" t="b">
         <v>1</v>
       </c>
       <c r="H119">
-        <v>383</v>
+        <v>1</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>370</v>
@@ -9287,25 +9287,25 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.00100836710650431</v>
+        <v>0.001012836833963423</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D120">
         <v>32</v>
       </c>
       <c r="E120">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F120">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G120" t="b">
         <v>1</v>
       </c>
       <c r="H120">
-        <v>127</v>
+        <v>4</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>371</v>
@@ -9337,25 +9337,25 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.00100836710650431</v>
+        <v>0.0009931234870973556</v>
       </c>
       <c r="C121">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D121">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E121">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="F121">
-        <v>0.03000000000000003</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G121" t="b">
         <v>1</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>372</v>
@@ -9387,25 +9387,25 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.0009930124837577866</v>
+        <v>0.0009529736228127645</v>
       </c>
       <c r="C122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D122">
+        <v>27</v>
+      </c>
+      <c r="E122">
+        <v>0.96</v>
+      </c>
+      <c r="F122">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="G122" t="b">
+        <v>1</v>
+      </c>
+      <c r="H122">
         <v>32</v>
-      </c>
-      <c r="E122">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F122">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="G122" t="b">
-        <v>1</v>
-      </c>
-      <c r="H122">
-        <v>4</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>373</v>
@@ -9437,25 +9437,25 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.0009736849880761287</v>
+        <v>0.0009360669922388816</v>
       </c>
       <c r="C123">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D123">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E123">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="F123">
-        <v>0.08999999999999997</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G123" t="b">
         <v>1</v>
       </c>
       <c r="H123">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>374</v>
@@ -9487,13 +9487,13 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.0009343209808453058</v>
+        <v>0.0009360669922388816</v>
       </c>
       <c r="C124">
         <v>1</v>
       </c>
       <c r="D124">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E124">
         <v>0.96</v>
@@ -9505,7 +9505,7 @@
         <v>1</v>
       </c>
       <c r="H124">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>375</v>
@@ -9537,25 +9537,25 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.00091774526533499</v>
+        <v>0.0009038522825311078</v>
       </c>
       <c r="C125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D125">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E125">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="F125">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G125" t="b">
         <v>1</v>
       </c>
       <c r="H125">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>376</v>
@@ -9587,25 +9587,25 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.00091774526533499</v>
+        <v>0.0008607889685991564</v>
       </c>
       <c r="C126">
         <v>1</v>
       </c>
       <c r="D126">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E126">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F126">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G126" t="b">
         <v>1</v>
       </c>
       <c r="H126">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>377</v>
@@ -9637,25 +9637,25 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.000886161097157307</v>
+        <v>0.0008397239772931941</v>
       </c>
       <c r="C127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D127">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E127">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="F127">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G127" t="b">
         <v>1</v>
       </c>
       <c r="H127">
-        <v>16</v>
+        <v>1140</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>378</v>
@@ -9687,25 +9687,25 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.0008439406655019229</v>
+        <v>0.0008287580750063091</v>
       </c>
       <c r="C128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D128">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E128">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="F128">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G128" t="b">
         <v>1</v>
       </c>
       <c r="H128">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>379</v>
@@ -9737,13 +9737,13 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.0008232879812435765</v>
+        <v>0.0008175967974161367</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
       <c r="D129">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E129">
         <v>0.95</v>
@@ -9755,7 +9755,7 @@
         <v>1</v>
       </c>
       <c r="H129">
-        <v>1140</v>
+        <v>22</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>380</v>
@@ -9787,19 +9787,19 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.0008125367155891344</v>
+        <v>0.000801766300640233</v>
       </c>
       <c r="C130">
         <v>2</v>
       </c>
       <c r="D130">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E130">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F130">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G130" t="b">
         <v>1</v>
@@ -9837,13 +9837,13 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.0008015938987305134</v>
+        <v>0.0007943054354393981</v>
       </c>
       <c r="C131">
         <v>1</v>
       </c>
       <c r="D131">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E131">
         <v>0.95</v>
@@ -9855,7 +9855,7 @@
         <v>1</v>
       </c>
       <c r="H131">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>382</v>
@@ -9887,25 +9887,25 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.0007860732537505664</v>
+        <v>0.0007697329762986719</v>
       </c>
       <c r="C132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D132">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E132">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F132">
-        <v>0.08999999999999997</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G132" t="b">
         <v>1</v>
       </c>
       <c r="H132">
-        <v>4</v>
+        <v>309</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>383</v>
@@ -9937,25 +9937,25 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.0007787584207630345</v>
+        <v>0.0007697329762986719</v>
       </c>
       <c r="C133">
         <v>1</v>
       </c>
       <c r="D133">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E133">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F133">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G133" t="b">
         <v>1</v>
       </c>
       <c r="H133">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>384</v>
@@ -9987,7 +9987,7 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.0007546669206663362</v>
+        <v>0.0007697329762986719</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -10005,7 +10005,7 @@
         <v>1</v>
       </c>
       <c r="H134">
-        <v>309</v>
+        <v>101</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>385</v>
@@ -10037,7 +10037,7 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.0007546669206663362</v>
+        <v>0.0007697329762986719</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -10055,7 +10055,7 @@
         <v>1</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>386</v>
@@ -10087,7 +10087,7 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.0007546669206663362</v>
+        <v>0.0007697329762986719</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -10105,7 +10105,7 @@
         <v>1</v>
       </c>
       <c r="H136">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>387</v>
@@ -10137,25 +10137,25 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.0007546669206663362</v>
+        <v>0.0007658421638221365</v>
       </c>
       <c r="C137">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D137">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E137">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="F137">
-        <v>0.06000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="G137" t="b">
         <v>1</v>
       </c>
       <c r="H137">
-        <v>10</v>
+        <v>624</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>388</v>
@@ -10187,13 +10187,13 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.0007546669206663362</v>
+        <v>0.0007437445937847701</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
       <c r="D138">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E138">
         <v>0.9399999999999999</v>
@@ -10205,10 +10205,10 @@
         <v>1</v>
       </c>
       <c r="H138">
-        <v>61</v>
+        <v>291</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K138">
         <v>0.001262314805580139</v>
@@ -10237,25 +10237,25 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.0007508522634267876</v>
+        <v>0.0007437445937847701</v>
       </c>
       <c r="C139">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D139">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E139">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F139">
-        <v>0.12</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G139" t="b">
         <v>1</v>
       </c>
       <c r="H139">
-        <v>624</v>
+        <v>14</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>389</v>
@@ -10287,13 +10287,13 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.0007291872111972503</v>
+        <v>0.0007161837935310499</v>
       </c>
       <c r="C140">
         <v>1</v>
       </c>
       <c r="D140">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E140">
         <v>0.9399999999999999</v>
@@ -10305,7 +10305,7 @@
         <v>1</v>
       </c>
       <c r="H140">
-        <v>291</v>
+        <v>26</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>390</v>
@@ -10337,13 +10337,13 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.0007291872111972503</v>
+        <v>0.0007161837935310499</v>
       </c>
       <c r="C141">
         <v>1</v>
       </c>
       <c r="D141">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E141">
         <v>0.9399999999999999</v>
@@ -10355,7 +10355,7 @@
         <v>1</v>
       </c>
       <c r="H141">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>391</v>
@@ -10387,7 +10387,7 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.0007021658610680276</v>
+        <v>0.0007161837935310499</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -10405,7 +10405,7 @@
         <v>1</v>
       </c>
       <c r="H142">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>392</v>
@@ -10437,25 +10437,25 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.0007021658610680276</v>
+        <v>0.0007138450484372739</v>
       </c>
       <c r="C143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D143">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E143">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F143">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G143" t="b">
         <v>1</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>393</v>
@@ -10487,25 +10487,25 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.0007021658610680276</v>
+        <v>0.0006868676494407807</v>
       </c>
       <c r="C144">
         <v>1</v>
       </c>
       <c r="D144">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E144">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F144">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G144" t="b">
         <v>1</v>
       </c>
       <c r="H144">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>394</v>
@@ -10537,25 +10537,25 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.0006998728924510009</v>
+        <v>0.0006868676494407807</v>
       </c>
       <c r="C145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D145">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E145">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="F145">
-        <v>0.09999999999999998</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G145" t="b">
         <v>1</v>
       </c>
       <c r="H145">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>395</v>
@@ -10587,7 +10587,7 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.0006734235246115607</v>
+        <v>0.0006868676494407807</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -10605,7 +10605,7 @@
         <v>1</v>
       </c>
       <c r="H146">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>396</v>
@@ -10637,25 +10637,25 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.0006734235246115607</v>
+        <v>0.000681912243657493</v>
       </c>
       <c r="C147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D147">
+        <v>19</v>
+      </c>
+      <c r="E147">
+        <v>0.89</v>
+      </c>
+      <c r="F147">
+        <v>0.11</v>
+      </c>
+      <c r="G147" t="b">
+        <v>1</v>
+      </c>
+      <c r="H147">
         <v>15</v>
-      </c>
-      <c r="E147">
-        <v>0.93</v>
-      </c>
-      <c r="F147">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="G147" t="b">
-        <v>1</v>
-      </c>
-      <c r="H147">
-        <v>57</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>397</v>
@@ -10687,13 +10687,13 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.0006734235246115607</v>
+        <v>0.0006555807094034273</v>
       </c>
       <c r="C148">
         <v>1</v>
       </c>
       <c r="D148">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E148">
         <v>0.93</v>
@@ -10705,7 +10705,7 @@
         <v>1</v>
       </c>
       <c r="H148">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>398</v>
@@ -10737,25 +10737,25 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.0006685651114497542</v>
+        <v>0.0006555807094034273</v>
       </c>
       <c r="C149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D149">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E149">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="F149">
-        <v>0.11</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G149" t="b">
         <v>1</v>
       </c>
       <c r="H149">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>399</v>
@@ -10787,7 +10787,7 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.0006427489667816514</v>
+        <v>0.0006555807094034273</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -10805,7 +10805,7 @@
         <v>1</v>
       </c>
       <c r="H150">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>400</v>
@@ -10837,7 +10837,7 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.0006427489667816514</v>
+        <v>0.0006555807094034273</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -10855,7 +10855,7 @@
         <v>1</v>
       </c>
       <c r="H151">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>401</v>
@@ -10887,25 +10887,25 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.0006427489667816514</v>
+        <v>0.000622067130780049</v>
       </c>
       <c r="C152">
         <v>1</v>
       </c>
       <c r="D152">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E152">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F152">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>114</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>402</v>
@@ -10937,25 +10937,25 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.0006427489667816514</v>
+        <v>0.000622067130780049</v>
       </c>
       <c r="C153">
         <v>1</v>
       </c>
       <c r="D153">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E153">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F153">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
       </c>
       <c r="H153">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>403</v>
@@ -10987,7 +10987,7 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.0006098913525712913</v>
+        <v>0.000622067130780049</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -11005,7 +11005,7 @@
         <v>1</v>
       </c>
       <c r="H154">
-        <v>114</v>
+        <v>7</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>404</v>
@@ -11037,7 +11037,7 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.0006098913525712913</v>
+        <v>0.000622067130780049</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -11055,7 +11055,7 @@
         <v>1</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>405</v>
@@ -11087,7 +11087,7 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.0006098913525712913</v>
+        <v>0.000622067130780049</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -11105,7 +11105,7 @@
         <v>1</v>
       </c>
       <c r="H156">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>406</v>
@@ -11137,13 +11137,13 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.0006098913525712913</v>
+        <v>0.0005860204548000705</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
       <c r="D157">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E157">
         <v>0.92</v>
@@ -11187,25 +11187,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.0006098913525712913</v>
+        <v>0.0005766229967917127</v>
       </c>
       <c r="C158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D158">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E158">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="F158">
-        <v>0.07999999999999996</v>
+        <v>0.12</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>13</v>
+        <v>333</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>408</v>
@@ -11237,25 +11237,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.000574550221556122</v>
+        <v>0.0005766229967917127</v>
       </c>
       <c r="C159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D159">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E159">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="F159">
-        <v>0.07999999999999996</v>
+        <v>0.12</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>409</v>
@@ -11287,7 +11287,7 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.000565336700873455</v>
+        <v>0.0005766229967917127</v>
       </c>
       <c r="C160">
         <v>2</v>
@@ -11305,7 +11305,7 @@
         <v>1</v>
       </c>
       <c r="H160">
-        <v>333</v>
+        <v>10</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>410</v>
@@ -11337,7 +11337,7 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.000565336700873455</v>
+        <v>0.0005766229967917127</v>
       </c>
       <c r="C161">
         <v>2</v>
@@ -11355,7 +11355,7 @@
         <v>1</v>
       </c>
       <c r="H161">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>411</v>
@@ -11387,25 +11387,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.000565336700873455</v>
+        <v>0.0005470702476348333</v>
       </c>
       <c r="C162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D162">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E162">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="F162">
-        <v>0.12</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
       </c>
       <c r="H162">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>412</v>
@@ -11437,25 +11437,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.000565336700873455</v>
+        <v>0.0005470702476348333</v>
       </c>
       <c r="C163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D163">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E163">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="F163">
-        <v>0.12</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>413</v>
@@ -11487,25 +11487,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.0005363623904435054</v>
+        <v>0.0005378897812972625</v>
       </c>
       <c r="C164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D164">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E164">
-        <v>0.91</v>
+        <v>0.87</v>
       </c>
       <c r="F164">
-        <v>0.08999999999999997</v>
+        <v>0.13</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>414</v>
@@ -11537,25 +11537,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.0005363623904435054</v>
+        <v>0.0005378897812972625</v>
       </c>
       <c r="C165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D165">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E165">
-        <v>0.91</v>
+        <v>0.87</v>
       </c>
       <c r="F165">
-        <v>0.08999999999999997</v>
+        <v>0.13</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>415</v>
@@ -11587,25 +11587,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.0005273616142333314</v>
+        <v>0.0005047646744664358</v>
       </c>
       <c r="C166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D166">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E166">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
       <c r="F166">
-        <v>0.13</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>416</v>
@@ -11637,25 +11637,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.0005273616142333314</v>
+        <v>0.0005047646744664358</v>
       </c>
       <c r="C167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D167">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E167">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
       <c r="F167">
-        <v>0.13</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G167" t="b">
         <v>1</v>
       </c>
       <c r="H167">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>417</v>
@@ -11687,7 +11687,7 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.000494884868220746</v>
+        <v>0.0005047646744664358</v>
       </c>
       <c r="C168">
         <v>1</v>
@@ -11705,7 +11705,7 @@
         <v>1</v>
       </c>
       <c r="H168">
-        <v>3</v>
+        <v>205</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>418</v>
@@ -11737,25 +11737,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.000494884868220746</v>
+        <v>0.000497063829022602</v>
       </c>
       <c r="C169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D169">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E169">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="F169">
-        <v>0.09999999999999998</v>
+        <v>0.14</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>419</v>
@@ -11787,25 +11787,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.000494884868220746</v>
+        <v>0.000497063829022602</v>
       </c>
       <c r="C170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D170">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E170">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="F170">
-        <v>0.09999999999999998</v>
+        <v>0.14</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>420</v>
@@ -11837,25 +11837,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.000487334752145986</v>
+        <v>0.0004736917451247578</v>
       </c>
       <c r="C171">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D171">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E171">
-        <v>0.86</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F171">
-        <v>0.14</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>421</v>
@@ -11887,25 +11887,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.000487334752145986</v>
+        <v>0.0004585481306681659</v>
       </c>
       <c r="C172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D172">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E172">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="F172">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>422</v>
@@ -11937,25 +11937,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.000464420132235123</v>
+        <v>0.0004585481306681659</v>
       </c>
       <c r="C173">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D173">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E173">
-        <v>0.8100000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="F173">
-        <v>0.1899999999999999</v>
+        <v>0.11</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>423</v>
@@ -11987,7 +11987,7 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.0004495729251625239</v>
+        <v>0.0004585481306681659</v>
       </c>
       <c r="C174">
         <v>1</v>
@@ -12005,7 +12005,7 @@
         <v>1</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>424</v>
@@ -12037,7 +12037,7 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.0004495729251625239</v>
+        <v>0.0004585481306681659</v>
       </c>
       <c r="C175">
         <v>1</v>
@@ -12055,7 +12055,7 @@
         <v>1</v>
       </c>
       <c r="H175">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>425</v>
@@ -12087,7 +12087,7 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.0004495729251625239</v>
+        <v>0.0004585481306681659</v>
       </c>
       <c r="C176">
         <v>1</v>
@@ -12105,7 +12105,7 @@
         <v>1</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>426</v>
@@ -12137,7 +12137,7 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.0004495729251625239</v>
+        <v>0.0004585481306681659</v>
       </c>
       <c r="C177">
         <v>1</v>
@@ -12155,7 +12155,7 @@
         <v>1</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>427</v>
@@ -12187,7 +12187,7 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.0004495729251625239</v>
+        <v>0.0004585481306681659</v>
       </c>
       <c r="C178">
         <v>1</v>
@@ -12237,25 +12237,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.0004495729251625239</v>
+        <v>0.0004539586637272601</v>
       </c>
       <c r="C179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D179">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E179">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="F179">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>429</v>
@@ -12287,25 +12287,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.0004495729251625239</v>
+        <v>0.0004539586637272601</v>
       </c>
       <c r="C180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D180">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E180">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="F180">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>430</v>
@@ -12337,25 +12337,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.0004450732882878664</v>
+        <v>0.0004083783769181136</v>
       </c>
       <c r="C181">
         <v>2</v>
       </c>
       <c r="D181">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E181">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="F181">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>431</v>
@@ -12387,25 +12387,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.0004450732882878664</v>
+        <v>0.0004077340312195288</v>
       </c>
       <c r="C182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D182">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E182">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="F182">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>432</v>
@@ -12437,25 +12437,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.0004003851487011328</v>
+        <v>0.0004077340312195288</v>
       </c>
       <c r="C183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D183">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E183">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F183">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>433</v>
@@ -12487,7 +12487,7 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.0003997534148412508</v>
+        <v>0.0004077340312195288</v>
       </c>
       <c r="C184">
         <v>1</v>
@@ -12505,7 +12505,7 @@
         <v>1</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>434</v>
@@ -12537,7 +12537,7 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.0003997534148412508</v>
+        <v>0.0004077340312195288</v>
       </c>
       <c r="C185">
         <v>1</v>
@@ -12555,7 +12555,7 @@
         <v>1</v>
       </c>
       <c r="H185">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>435</v>
@@ -12587,7 +12587,7 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.0003997534148412508</v>
+        <v>0.0004077340312195288</v>
       </c>
       <c r="C186">
         <v>1</v>
@@ -12605,7 +12605,7 @@
         <v>1</v>
       </c>
       <c r="H186">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>436</v>
@@ -12637,7 +12637,7 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.0003997534148412508</v>
+        <v>0.0004077340312195288</v>
       </c>
       <c r="C187">
         <v>1</v>
@@ -12655,7 +12655,7 @@
         <v>1</v>
       </c>
       <c r="H187">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>437</v>
@@ -12687,7 +12687,7 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.0003997534148412508</v>
+        <v>0.0004077340312195288</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -12705,7 +12705,7 @@
         <v>1</v>
       </c>
       <c r="H188">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>438</v>
@@ -12737,7 +12737,7 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.0003997534148412508</v>
+        <v>0.0004077340312195288</v>
       </c>
       <c r="C189">
         <v>1</v>
@@ -12755,7 +12755,7 @@
         <v>1</v>
       </c>
       <c r="H189">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>439</v>
@@ -12787,7 +12787,7 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.0003997534148412508</v>
+        <v>0.0004077340312195288</v>
       </c>
       <c r="C190">
         <v>1</v>
@@ -12805,7 +12805,7 @@
         <v>1</v>
       </c>
       <c r="H190">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>440</v>
@@ -12837,7 +12837,7 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.0003997534148412508</v>
+        <v>0.0004077340312195288</v>
       </c>
       <c r="C191">
         <v>1</v>
@@ -12855,7 +12855,7 @@
         <v>1</v>
       </c>
       <c r="H191">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>441</v>
@@ -12887,7 +12887,7 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.0003997534148412508</v>
+        <v>0.0004077340312195288</v>
       </c>
       <c r="C192">
         <v>1</v>
@@ -12905,7 +12905,7 @@
         <v>1</v>
       </c>
       <c r="H192">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>442</v>
@@ -12937,7 +12937,7 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.0003997534148412508</v>
+        <v>0.0004077340312195288</v>
       </c>
       <c r="C193">
         <v>1</v>
@@ -12955,7 +12955,7 @@
         <v>1</v>
       </c>
       <c r="H193">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>443</v>
@@ -12987,25 +12987,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.0003997534148412508</v>
+        <v>0.0003514772041844325</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E194">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F194">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>444</v>
@@ -13037,25 +13037,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.0003997534148412508</v>
+        <v>0.0003514772041844325</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
       <c r="D195">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E195">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F195">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>445</v>
@@ -13087,7 +13087,7 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.0003445977079502921</v>
+        <v>0.0003514772041844325</v>
       </c>
       <c r="C196">
         <v>1</v>
@@ -13105,7 +13105,7 @@
         <v>1</v>
       </c>
       <c r="H196">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>446</v>
@@ -13137,25 +13137,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.0003445977079502921</v>
+        <v>0.000288767119608754</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
       <c r="D197">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E197">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F197">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>447</v>
@@ -13187,25 +13187,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.0003445977079502921</v>
+        <v>0.000288767119608754</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E198">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F198">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>448</v>
@@ -13237,7 +13237,7 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.0002831150537329552</v>
+        <v>0.000288767119608754</v>
       </c>
       <c r="C199">
         <v>1</v>
@@ -13255,7 +13255,7 @@
         <v>1</v>
       </c>
       <c r="H199">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>449</v>
@@ -13287,7 +13287,7 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.0002831150537329552</v>
+        <v>0.000288767119608754</v>
       </c>
       <c r="C200">
         <v>1</v>
@@ -13305,7 +13305,7 @@
         <v>1</v>
       </c>
       <c r="H200">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>450</v>
@@ -13337,7 +13337,7 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.0002831150537329552</v>
+        <v>0.000288767119608754</v>
       </c>
       <c r="C201">
         <v>1</v>
@@ -13355,7 +13355,7 @@
         <v>1</v>
       </c>
       <c r="H201">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>451</v>
@@ -13387,7 +13387,7 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.0002831150537329552</v>
+        <v>0.000288767119608754</v>
       </c>
       <c r="C202">
         <v>1</v>
@@ -13405,7 +13405,7 @@
         <v>1</v>
       </c>
       <c r="H202">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>452</v>
@@ -13437,7 +13437,7 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.0002831150537329552</v>
+        <v>0.000288767119608754</v>
       </c>
       <c r="C203">
         <v>1</v>
@@ -13455,7 +13455,7 @@
         <v>1</v>
       </c>
       <c r="H203">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>453</v>
@@ -13487,7 +13487,7 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.0002831150537329552</v>
+        <v>0.000288767119608754</v>
       </c>
       <c r="C204">
         <v>1</v>
@@ -13505,7 +13505,7 @@
         <v>1</v>
       </c>
       <c r="H204">
-        <v>83</v>
+        <v>2</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>454</v>
@@ -13537,7 +13537,7 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.0002831150537329552</v>
+        <v>0.000288767119608754</v>
       </c>
       <c r="C205">
         <v>1</v>
@@ -13587,7 +13587,7 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.0002831150537329552</v>
+        <v>0.000288767119608754</v>
       </c>
       <c r="C206">
         <v>1</v>
@@ -13605,7 +13605,7 @@
         <v>1</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>456</v>
@@ -13637,25 +13637,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.0002831150537329552</v>
+        <v>0.0002550590466486164</v>
       </c>
       <c r="C207">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D207">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E207">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="F207">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>457</v>
@@ -13687,25 +13687,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.0002831150537329552</v>
+        <v>0.0002550590466486164</v>
       </c>
       <c r="C208">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D208">
+        <v>9</v>
+      </c>
+      <c r="E208">
+        <v>0.78</v>
+      </c>
+      <c r="F208">
+        <v>0.22</v>
+      </c>
+      <c r="G208" t="b">
+        <v>1</v>
+      </c>
+      <c r="H208">
         <v>6</v>
-      </c>
-      <c r="E208">
-        <v>0.83</v>
-      </c>
-      <c r="F208">
-        <v>0.17</v>
-      </c>
-      <c r="G208" t="b">
-        <v>1</v>
-      </c>
-      <c r="H208">
-        <v>14</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>458</v>
@@ -13737,25 +13737,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.0002500667520417039</v>
+        <v>0.0002185299219173274</v>
       </c>
       <c r="C209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D209">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E209">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="F209">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>459</v>
@@ -13787,25 +13787,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.0002500667520417039</v>
+        <v>0.0002185299219173274</v>
       </c>
       <c r="C210">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D210">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E210">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="F210">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>460</v>
@@ -13837,7 +13837,7 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.000214252615289816</v>
+        <v>0.0002185299219173274</v>
       </c>
       <c r="C211">
         <v>1</v>
@@ -13855,7 +13855,7 @@
         <v>1</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>461</v>
@@ -13887,7 +13887,7 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.000214252615289816</v>
+        <v>0.0002185299219173274</v>
       </c>
       <c r="C212">
         <v>1</v>
@@ -13905,7 +13905,7 @@
         <v>1</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>462</v>
@@ -13937,7 +13937,7 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.000214252615289816</v>
+        <v>0.0002185299219173274</v>
       </c>
       <c r="C213">
         <v>1</v>
@@ -13955,7 +13955,7 @@
         <v>1</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>463</v>
@@ -13987,7 +13987,7 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.000214252615289816</v>
+        <v>0.0002185299219173274</v>
       </c>
       <c r="C214">
         <v>1</v>
@@ -14037,7 +14037,7 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.000214252615289816</v>
+        <v>0.0002185299219173274</v>
       </c>
       <c r="C215">
         <v>1</v>
@@ -14055,10 +14055,10 @@
         <v>1</v>
       </c>
       <c r="H215">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="J215" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K215">
         <v>0.001092094043684671</v>
@@ -14087,7 +14087,7 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.000214252615289816</v>
+        <v>0.0002185299219173274</v>
       </c>
       <c r="C216">
         <v>1</v>
@@ -14105,10 +14105,10 @@
         <v>1</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J216" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K216">
         <v>0.001092094043684671</v>
@@ -14137,7 +14137,7 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.000214252615289816</v>
+        <v>0.0002185299219173274</v>
       </c>
       <c r="C217">
         <v>1</v>
@@ -14155,10 +14155,10 @@
         <v>1</v>
       </c>
       <c r="H217">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="J217" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K217">
         <v>0.001089190789384709</v>
@@ -14187,7 +14187,7 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.000214252615289816</v>
+        <v>0.0002185299219173274</v>
       </c>
       <c r="C218">
         <v>1</v>
@@ -14205,10 +14205,10 @@
         <v>1</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="J218" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K218">
         <v>0.001077252815636361</v>
@@ -14237,28 +14237,28 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.000214252615289816</v>
+        <v>0.0001553938958216566</v>
       </c>
       <c r="C219">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D219">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E219">
-        <v>0.8</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F219">
-        <v>0.2</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>61</v>
+        <v>955</v>
       </c>
       <c r="J219" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K219">
         <v>0.001038442460523223</v>
@@ -14287,25 +14287,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.000214252615289816</v>
+        <v>0.0001402282542542515</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E220">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F220">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>465</v>
@@ -14337,25 +14337,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.000152352356545748</v>
+        <v>0.0001402282542542515</v>
       </c>
       <c r="C221">
+        <v>1</v>
+      </c>
+      <c r="D221">
         <v>4</v>
       </c>
-      <c r="D221">
-        <v>13</v>
-      </c>
       <c r="E221">
-        <v>0.6899999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="F221">
-        <v>0.3100000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>955</v>
+        <v>2</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>466</v>
@@ -14387,7 +14387,7 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.0001374835535010385</v>
+        <v>0.0001402282542542515</v>
       </c>
       <c r="C222">
         <v>1</v>
@@ -14405,7 +14405,7 @@
         <v>1</v>
       </c>
       <c r="H222">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>467</v>
@@ -14437,7 +14437,7 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.0001374835535010385</v>
+        <v>0.0001402282542542515</v>
       </c>
       <c r="C223">
         <v>1</v>
@@ -14487,7 +14487,7 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.0001374835535010385</v>
+        <v>0.0001402282542542515</v>
       </c>
       <c r="C224">
         <v>1</v>
@@ -14505,7 +14505,7 @@
         <v>1</v>
       </c>
       <c r="H224">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>469</v>
@@ -14537,7 +14537,7 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.0001374835535010385</v>
+        <v>0.0001402282542542515</v>
       </c>
       <c r="C225">
         <v>1</v>
@@ -14555,7 +14555,7 @@
         <v>1</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>470</v>
@@ -14587,7 +14587,7 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.0001374835535010385</v>
+        <v>0.0001402282542542515</v>
       </c>
       <c r="C226">
         <v>1</v>
@@ -14605,7 +14605,7 @@
         <v>1</v>
       </c>
       <c r="H226">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>471</v>
@@ -14637,7 +14637,7 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.0001374835535010385</v>
+        <v>0.0001402282542542515</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -14655,7 +14655,7 @@
         <v>1</v>
       </c>
       <c r="H227">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>472</v>
@@ -14687,7 +14687,7 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.0001374835535010385</v>
+        <v>0.0001402282542542515</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -14705,7 +14705,7 @@
         <v>1</v>
       </c>
       <c r="H228">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>473</v>
@@ -14737,7 +14737,7 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.0001374835535010385</v>
+        <v>0.0001402282542542515</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -14755,7 +14755,7 @@
         <v>1</v>
       </c>
       <c r="H229">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>474</v>
@@ -14787,25 +14787,25 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.0001374835535010385</v>
+        <v>9.885987008664814E-05</v>
       </c>
       <c r="C230">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D230">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E230">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F230">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>475</v>
@@ -14837,25 +14837,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.0001374835535010385</v>
+        <v>8.071874591670782E-05</v>
       </c>
       <c r="C231">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D231">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E231">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
       <c r="F231">
-        <v>0.25</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>476</v>
@@ -14887,25 +14887,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>9.692487659099079E-05</v>
+        <v>8.071874591670782E-05</v>
       </c>
       <c r="C232">
+        <v>2</v>
+      </c>
+      <c r="D232">
         <v>3</v>
       </c>
-      <c r="D232">
-        <v>9</v>
-      </c>
       <c r="E232">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="F232">
-        <v>0.33</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>477</v>
@@ -14937,7 +14937,7 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>7.913883034338619E-05</v>
+        <v>8.071874591670782E-05</v>
       </c>
       <c r="C233">
         <v>2</v>
@@ -14955,7 +14955,7 @@
         <v>1</v>
       </c>
       <c r="H233">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>478</v>
@@ -14987,25 +14987,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>7.913883034338619E-05</v>
+        <v>8.071874591670656E-05</v>
       </c>
       <c r="C234">
         <v>2</v>
       </c>
       <c r="D234">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E234">
+        <v>0.67</v>
+      </c>
+      <c r="F234">
         <v>0.33</v>
       </c>
-      <c r="F234">
-        <v>0.6699999999999999</v>
-      </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>479</v>
@@ -15037,25 +15037,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>7.913883034338619E-05</v>
+        <v>5.707677260657714E-05</v>
       </c>
       <c r="C235">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D235">
         <v>3</v>
       </c>
       <c r="E235">
+        <v>0.67</v>
+      </c>
+      <c r="F235">
         <v>0.33</v>
       </c>
-      <c r="F235">
-        <v>0.6699999999999999</v>
-      </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>480</v>
@@ -15087,13 +15087,13 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>7.913883034338495E-05</v>
+        <v>5.707677260657714E-05</v>
       </c>
       <c r="C236">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D236">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E236">
         <v>0.67</v>
@@ -15105,7 +15105,7 @@
         <v>1</v>
       </c>
       <c r="H236">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>481</v>
@@ -15137,7 +15137,7 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>5.595960359097921E-05</v>
+        <v>5.707677260657714E-05</v>
       </c>
       <c r="C237">
         <v>1</v>
@@ -15155,7 +15155,7 @@
         <v>1</v>
       </c>
       <c r="H237">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>482</v>
@@ -15187,7 +15187,7 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>5.595960359097921E-05</v>
+        <v>5.707677260657714E-05</v>
       </c>
       <c r="C238">
         <v>1</v>
@@ -15205,7 +15205,7 @@
         <v>1</v>
       </c>
       <c r="H238">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>483</v>
@@ -15237,7 +15237,7 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>5.595960359097921E-05</v>
+        <v>5.707677260657714E-05</v>
       </c>
       <c r="C239">
         <v>1</v>
@@ -15255,7 +15255,7 @@
         <v>1</v>
       </c>
       <c r="H239">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>484</v>
@@ -15287,7 +15287,7 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>5.595960359097921E-05</v>
+        <v>5.707677260657714E-05</v>
       </c>
       <c r="C240">
         <v>1</v>
@@ -15305,7 +15305,7 @@
         <v>1</v>
       </c>
       <c r="H240">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>485</v>
@@ -15337,7 +15337,7 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>5.595960359097921E-05</v>
+        <v>5.707677260657714E-05</v>
       </c>
       <c r="C241">
         <v>1</v>
@@ -15355,7 +15355,7 @@
         <v>1</v>
       </c>
       <c r="H241">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>486</v>
@@ -15387,7 +15387,7 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>5.595960359097921E-05</v>
+        <v>5.707677260657714E-05</v>
       </c>
       <c r="C242">
         <v>1</v>
@@ -15405,7 +15405,7 @@
         <v>1</v>
       </c>
       <c r="H242">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>487</v>
@@ -15437,7 +15437,7 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>5.595960359097921E-05</v>
+        <v>5.707677260657714E-05</v>
       </c>
       <c r="C243">
         <v>1</v>
@@ -15455,7 +15455,7 @@
         <v>1</v>
       </c>
       <c r="H243">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>488</v>
@@ -15487,7 +15487,7 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>5.595960359097921E-05</v>
+        <v>5.707677260657714E-05</v>
       </c>
       <c r="C244">
         <v>1</v>
@@ -15505,7 +15505,7 @@
         <v>1</v>
       </c>
       <c r="H244">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>489</v>
@@ -15537,7 +15537,7 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>5.595960359097921E-05</v>
+        <v>5.707677260657714E-05</v>
       </c>
       <c r="C245">
         <v>1</v>
@@ -15555,7 +15555,7 @@
         <v>1</v>
       </c>
       <c r="H245">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>490</v>
@@ -15587,7 +15587,7 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>5.595960359097921E-05</v>
+        <v>5.707677260657714E-05</v>
       </c>
       <c r="C246">
         <v>1</v>
@@ -15605,7 +15605,7 @@
         <v>1</v>
       </c>
       <c r="H246">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>491</v>
@@ -15637,7 +15637,7 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>5.595960359097921E-05</v>
+        <v>5.707677260657714E-05</v>
       </c>
       <c r="C247">
         <v>1</v>
@@ -15655,7 +15655,7 @@
         <v>1</v>
       </c>
       <c r="H247">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>492</v>
@@ -15687,7 +15687,7 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>5.595960359097921E-05</v>
+        <v>5.707677260657714E-05</v>
       </c>
       <c r="C248">
         <v>1</v>
@@ -15705,7 +15705,7 @@
         <v>1</v>
       </c>
       <c r="H248">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>493</v>
@@ -15737,25 +15737,25 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>5.595960359097921E-05</v>
+        <v>2.789243787812442E-05</v>
       </c>
       <c r="C249">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D249">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E249">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="F249">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="G249" t="b">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>494</v>
@@ -15787,25 +15787,25 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>5.595960359097921E-05</v>
+        <v>1.724072068138882E-05</v>
       </c>
       <c r="C250">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D250">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E250">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="F250">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="G250" t="b">
         <v>1</v>
       </c>
       <c r="H250">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>495</v>
@@ -15837,25 +15837,25 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>2.734649657934572E-05</v>
+        <v>0</v>
       </c>
       <c r="C251">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D251">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E251">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F251">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G251" t="b">
         <v>1</v>
       </c>
       <c r="H251">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>496</v>
@@ -15887,25 +15887,25 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>1.690326644085934E-05</v>
+        <v>0</v>
       </c>
       <c r="C252">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D252">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E252">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="F252">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>497</v>
@@ -15955,7 +15955,7 @@
         <v>1</v>
       </c>
       <c r="H253">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>498</v>
@@ -16005,7 +16005,7 @@
         <v>1</v>
       </c>
       <c r="H254">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>499</v>
@@ -16055,7 +16055,7 @@
         <v>1</v>
       </c>
       <c r="H255">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>500</v>
@@ -16105,7 +16105,7 @@
         <v>1</v>
       </c>
       <c r="H256">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>501</v>
@@ -16155,7 +16155,7 @@
         <v>1</v>
       </c>
       <c r="H257">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>502</v>
@@ -16205,7 +16205,7 @@
         <v>1</v>
       </c>
       <c r="H258">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>503</v>
@@ -16240,10 +16240,10 @@
         <v>0</v>
       </c>
       <c r="C259">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D259">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E259">
         <v>0.5</v>
@@ -16255,7 +16255,7 @@
         <v>1</v>
       </c>
       <c r="H259">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>504</v>
@@ -16305,7 +16305,7 @@
         <v>1</v>
       </c>
       <c r="H260">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>505</v>
@@ -16340,10 +16340,10 @@
         <v>0</v>
       </c>
       <c r="C261">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D261">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E261">
         <v>0.5</v>
@@ -16355,7 +16355,7 @@
         <v>1</v>
       </c>
       <c r="H261">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>506</v>
@@ -16405,7 +16405,7 @@
         <v>1</v>
       </c>
       <c r="H262">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>507</v>
@@ -16455,7 +16455,7 @@
         <v>1</v>
       </c>
       <c r="H263">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>508</v>
@@ -16505,7 +16505,7 @@
         <v>1</v>
       </c>
       <c r="H264">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>509</v>
@@ -16533,32 +16533,8 @@
       </c>
     </row>
     <row r="265" spans="1:17">
-      <c r="A265" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B265">
-        <v>0</v>
-      </c>
-      <c r="C265">
-        <v>1</v>
-      </c>
-      <c r="D265">
-        <v>2</v>
-      </c>
-      <c r="E265">
-        <v>0.5</v>
-      </c>
-      <c r="F265">
-        <v>0.5</v>
-      </c>
-      <c r="G265" t="b">
-        <v>1</v>
-      </c>
-      <c r="H265">
-        <v>23</v>
-      </c>
       <c r="J265" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K265">
         <v>0.001012843376366304</v>
@@ -16583,32 +16559,8 @@
       </c>
     </row>
     <row r="266" spans="1:17">
-      <c r="A266" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B266">
-        <v>0</v>
-      </c>
-      <c r="C266">
-        <v>1</v>
-      </c>
-      <c r="D266">
-        <v>2</v>
-      </c>
-      <c r="E266">
-        <v>0.5</v>
-      </c>
-      <c r="F266">
-        <v>0.5</v>
-      </c>
-      <c r="G266" t="b">
-        <v>1</v>
-      </c>
-      <c r="H266">
-        <v>17</v>
-      </c>
       <c r="J266" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K266">
         <v>0.0009870914220688573</v>
@@ -16634,7 +16586,7 @@
     </row>
     <row r="267" spans="1:17">
       <c r="J267" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K267">
         <v>0.0009500137843198332</v>
@@ -16660,7 +16612,7 @@
     </row>
     <row r="268" spans="1:17">
       <c r="J268" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K268">
         <v>0.000926708820222862</v>
@@ -16686,7 +16638,7 @@
     </row>
     <row r="269" spans="1:17">
       <c r="J269" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K269">
         <v>0.0008925913590178954</v>
@@ -16712,7 +16664,7 @@
     </row>
     <row r="270" spans="1:17">
       <c r="J270" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K270">
         <v>0.0008925913590178954</v>
@@ -19676,7 +19628,7 @@
     </row>
     <row r="384" spans="10:17">
       <c r="J384" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K384">
         <v>0.0007753208518250691</v>
@@ -19702,7 +19654,7 @@
     </row>
     <row r="385" spans="10:17">
       <c r="J385" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K385">
         <v>0.00075228444600991</v>
@@ -19728,7 +19680,7 @@
     </row>
     <row r="386" spans="10:17">
       <c r="J386" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K386">
         <v>0.0007481020745243442</v>
@@ -23524,7 +23476,7 @@
     </row>
     <row r="532" spans="10:17">
       <c r="J532" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K532">
         <v>0.0007210459244759676</v>
@@ -23550,7 +23502,7 @@
     </row>
     <row r="533" spans="10:17">
       <c r="J533" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K533">
         <v>0.000716188419708492</v>
@@ -23576,7 +23528,7 @@
     </row>
     <row r="534" spans="10:17">
       <c r="J534" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K534">
         <v>0.0006796600211013673</v>
@@ -23602,7 +23554,7 @@
     </row>
     <row r="535" spans="10:17">
       <c r="J535" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K535">
         <v>0.0006426870210922181</v>
@@ -23628,7 +23580,7 @@
     </row>
     <row r="536" spans="10:17">
       <c r="J536" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K536">
         <v>0.000618576415046501</v>
@@ -23654,7 +23606,7 @@
     </row>
     <row r="537" spans="10:17">
       <c r="J537" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K537">
         <v>0.0006094361449320587</v>
@@ -23680,7 +23632,7 @@
     </row>
     <row r="538" spans="10:17">
       <c r="J538" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K538">
         <v>0.0006052576619636511</v>
@@ -23706,7 +23658,7 @@
     </row>
     <row r="539" spans="10:17">
       <c r="J539" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K539">
         <v>0.0006052576619636511</v>
@@ -23732,7 +23684,7 @@
     </row>
     <row r="540" spans="10:17">
       <c r="J540" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K540">
         <v>0.0006052576619636511</v>
@@ -23758,7 +23710,7 @@
     </row>
     <row r="541" spans="10:17">
       <c r="J541" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K541">
         <v>0.0006052576619636511</v>
@@ -23784,7 +23736,7 @@
     </row>
     <row r="542" spans="10:17">
       <c r="J542" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K542">
         <v>0.0006052576619636511</v>
@@ -23810,7 +23762,7 @@
     </row>
     <row r="543" spans="10:17">
       <c r="J543" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K543">
         <v>0.0005673610997783333</v>
@@ -23836,7 +23788,7 @@
     </row>
     <row r="544" spans="10:17">
       <c r="J544" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K544">
         <v>0.0005673610997783333</v>
@@ -23862,7 +23814,7 @@
     </row>
     <row r="545" spans="10:17">
       <c r="J545" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K545">
         <v>0.0005289880499158878</v>
@@ -23888,7 +23840,7 @@
     </row>
     <row r="546" spans="10:17">
       <c r="J546" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K546">
         <v>0.0005289880499158878</v>
@@ -23914,7 +23866,7 @@
     </row>
     <row r="547" spans="10:17">
       <c r="J547" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K547">
         <v>0.0005289880499158878</v>
@@ -23940,7 +23892,7 @@
     </row>
     <row r="548" spans="10:17">
       <c r="J548" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K548">
         <v>0.0005242034297285768</v>
@@ -30024,7 +29976,7 @@
     </row>
     <row r="782" spans="10:17">
       <c r="J782" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K782">
         <v>0.0004954709431012407</v>
@@ -30050,7 +30002,7 @@
     </row>
     <row r="783" spans="10:17">
       <c r="J783" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K783">
         <v>0.0004901317343881341</v>
@@ -30076,7 +30028,7 @@
     </row>
     <row r="784" spans="10:17">
       <c r="J784" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K784">
         <v>0.0004901317343881341</v>
@@ -30102,7 +30054,7 @@
     </row>
     <row r="785" spans="10:17">
       <c r="J785" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K785">
         <v>0.0004901317343881341</v>
@@ -30128,7 +30080,7 @@
     </row>
     <row r="786" spans="10:17">
       <c r="J786" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K786">
         <v>0.0004507892850026763</v>
@@ -30154,7 +30106,7 @@
     </row>
     <row r="787" spans="10:17">
       <c r="J787" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K787">
         <v>0.0004507892850026763</v>
@@ -30180,7 +30132,7 @@
     </row>
     <row r="788" spans="10:17">
       <c r="J788" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K788">
         <v>0.0004507892850026763</v>
@@ -30206,7 +30158,7 @@
     </row>
     <row r="789" spans="10:17">
       <c r="J789" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K789">
         <v>0.0004507892850026763</v>
@@ -30232,7 +30184,7 @@
     </row>
     <row r="790" spans="10:17">
       <c r="J790" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K790">
         <v>0.0004109638487219576</v>
@@ -30258,7 +30210,7 @@
     </row>
     <row r="791" spans="10:17">
       <c r="J791" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K791">
         <v>0.0004109638487219576</v>
@@ -30284,7 +30236,7 @@
     </row>
     <row r="792" spans="10:17">
       <c r="J792" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K792">
         <v>0.0004109638487219576</v>
@@ -30310,7 +30262,7 @@
     </row>
     <row r="793" spans="10:17">
       <c r="J793" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K793">
         <v>0.0004109638487219576</v>
@@ -30336,7 +30288,7 @@
     </row>
     <row r="794" spans="10:17">
       <c r="J794" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K794">
         <v>0.0004109638487219576</v>
@@ -30362,7 +30314,7 @@
     </row>
     <row r="795" spans="10:17">
       <c r="J795" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K795">
         <v>0.0004084143082893048</v>
@@ -30388,7 +30340,7 @@
     </row>
     <row r="796" spans="10:17">
       <c r="J796" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K796">
         <v>0.0004044066664864753</v>
@@ -30414,7 +30366,7 @@
     </row>
     <row r="797" spans="10:17">
       <c r="J797" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K797">
         <v>0.0003791522989380115</v>
@@ -30440,7 +30392,7 @@
     </row>
     <row r="798" spans="10:17">
       <c r="J798" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K798">
         <v>0.0003706677998823226</v>
@@ -30466,7 +30418,7 @@
     </row>
     <row r="799" spans="10:17">
       <c r="J799" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K799">
         <v>0.0003299277451324629</v>
@@ -30492,7 +30444,7 @@
     </row>
     <row r="800" spans="10:17">
       <c r="J800" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K800">
         <v>0.0003299277451324629</v>
@@ -30518,7 +30470,7 @@
     </row>
     <row r="801" spans="10:17">
       <c r="J801" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K801">
         <v>0.0002909489012233974</v>
@@ -30544,7 +30496,7 @@
     </row>
     <row r="802" spans="10:17">
       <c r="J802" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K802">
         <v>0.0002909489012233974</v>
@@ -30570,7 +30522,7 @@
     </row>
     <row r="803" spans="10:17">
       <c r="J803" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K803">
         <v>0.0002909489012233974</v>
@@ -30596,7 +30548,7 @@
     </row>
     <row r="804" spans="10:17">
       <c r="J804" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K804">
         <v>0.0002909489012233974</v>
@@ -30622,7 +30574,7 @@
     </row>
     <row r="805" spans="10:17">
       <c r="J805" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K805">
         <v>0.0002887925269249807</v>
@@ -30648,7 +30600,7 @@
     </row>
     <row r="806" spans="10:17">
       <c r="J806" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K806">
         <v>0.0002887925269249807</v>
@@ -30674,7 +30626,7 @@
     </row>
     <row r="807" spans="10:17">
       <c r="J807" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K807">
         <v>0.0002887925269249807</v>
@@ -30700,7 +30652,7 @@
     </row>
     <row r="808" spans="10:17">
       <c r="J808" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K808">
         <v>0.0002615325297066777</v>
@@ -30726,7 +30678,7 @@
     </row>
     <row r="809" spans="10:17">
       <c r="J809" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K809">
         <v>0.0002615325297066777</v>
@@ -30752,7 +30704,7 @@
     </row>
     <row r="810" spans="10:17">
       <c r="J810" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K810">
         <v>0.00024734643960859</v>
@@ -30778,7 +30730,7 @@
     </row>
     <row r="811" spans="10:17">
       <c r="J811" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K811">
         <v>0.00024734643960859</v>
@@ -30804,7 +30756,7 @@
     </row>
     <row r="812" spans="10:17">
       <c r="J812" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K812">
         <v>0.00024734643960859</v>
@@ -30830,7 +30782,7 @@
     </row>
     <row r="813" spans="10:17">
       <c r="J813" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K813">
         <v>0.00024734643960859</v>
@@ -30856,7 +30808,7 @@
     </row>
     <row r="814" spans="10:17">
       <c r="J814" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K814">
         <v>0.00024734643960859</v>
@@ -30882,7 +30834,7 @@
     </row>
     <row r="815" spans="10:17">
       <c r="J815" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K815">
         <v>0.00024734643960859</v>
@@ -30908,7 +30860,7 @@
     </row>
     <row r="816" spans="10:17">
       <c r="J816" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K816">
         <v>0.00024734643960859</v>
@@ -30934,7 +30886,7 @@
     </row>
     <row r="817" spans="10:17">
       <c r="J817" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K817">
         <v>0.0002322007021791037</v>
@@ -30960,7 +30912,7 @@
     </row>
     <row r="818" spans="10:17">
       <c r="J818" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K818">
         <v>0.0002322007021791037</v>
@@ -30986,7 +30938,7 @@
     </row>
     <row r="819" spans="10:17">
       <c r="J819" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K819">
         <v>0.0002057319410338397</v>
@@ -31012,7 +30964,7 @@
     </row>
     <row r="820" spans="10:17">
       <c r="J820" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K820">
         <v>0.0002057319410338397</v>
@@ -31038,7 +30990,7 @@
     </row>
     <row r="821" spans="10:17">
       <c r="J821" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K821">
         <v>0.0002057319410338397</v>
@@ -31064,7 +31016,7 @@
     </row>
     <row r="822" spans="10:17">
       <c r="J822" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K822">
         <v>0.0002057319410338397</v>
@@ -31090,7 +31042,7 @@
     </row>
     <row r="823" spans="10:17">
       <c r="J823" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K823">
         <v>0.0002057319410338397</v>
@@ -31116,7 +31068,7 @@
     </row>
     <row r="824" spans="10:17">
       <c r="J824" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K824">
         <v>0.0002057319410338397</v>
@@ -31142,7 +31094,7 @@
     </row>
     <row r="825" spans="10:17">
       <c r="J825" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K825">
         <v>0.0002057319410338397</v>
@@ -31168,7 +31120,7 @@
     </row>
     <row r="826" spans="10:17">
       <c r="J826" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K826">
         <v>0.0002057319410338397</v>
@@ -31194,7 +31146,7 @@
     </row>
     <row r="827" spans="10:17">
       <c r="J827" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K827">
         <v>0.0002057319410338397</v>
@@ -31220,7 +31172,7 @@
     </row>
     <row r="828" spans="10:17">
       <c r="J828" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K828">
         <v>0.0002057319410338397</v>
@@ -31246,7 +31198,7 @@
     </row>
     <row r="829" spans="10:17">
       <c r="J829" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K829">
         <v>0.0002057319410338397</v>
@@ -31272,7 +31224,7 @@
     </row>
     <row r="830" spans="10:17">
       <c r="J830" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K830">
         <v>0.0002057319410338397</v>
@@ -31298,7 +31250,7 @@
     </row>
     <row r="831" spans="10:17">
       <c r="J831" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K831">
         <v>0.0002030361624169051</v>
@@ -31324,7 +31276,7 @@
     </row>
     <row r="832" spans="10:17">
       <c r="J832" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K832">
         <v>0.0002030361624169051</v>
@@ -31350,7 +31302,7 @@
     </row>
     <row r="833" spans="10:17">
       <c r="J833" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K833">
         <v>0.0001862370243797665</v>
@@ -31376,7 +31328,7 @@
     </row>
     <row r="834" spans="10:17">
       <c r="J834" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K834">
         <v>0.0001741500018558973</v>
@@ -31402,7 +31354,7 @@
     </row>
     <row r="835" spans="10:17">
       <c r="J835" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K835">
         <v>0.0001641906911071222</v>
@@ -31428,7 +31380,7 @@
     </row>
     <row r="836" spans="10:17">
       <c r="J836" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K836">
         <v>0.0001641906911071222</v>
@@ -31454,7 +31406,7 @@
     </row>
     <row r="837" spans="10:17">
       <c r="J837" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K837">
         <v>0.0001641906911071222</v>
@@ -31480,7 +31432,7 @@
     </row>
     <row r="838" spans="10:17">
       <c r="J838" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K838">
         <v>0.0001231426472559548</v>
@@ -31506,7 +31458,7 @@
     </row>
     <row r="839" spans="10:17">
       <c r="J839" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K839">
         <v>0.0001231426472559548</v>
@@ -31532,7 +31484,7 @@
     </row>
     <row r="840" spans="10:17">
       <c r="J840" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K840">
         <v>0.0001231426472559548</v>
@@ -31558,7 +31510,7 @@
     </row>
     <row r="841" spans="10:17">
       <c r="J841" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K841">
         <v>0.0001231426472559548</v>
@@ -31584,7 +31536,7 @@
     </row>
     <row r="842" spans="10:17">
       <c r="J842" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K842">
         <v>0.0001231426472559548</v>
@@ -31610,7 +31562,7 @@
     </row>
     <row r="843" spans="10:17">
       <c r="J843" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K843">
         <v>0.0001231426472559548</v>
@@ -31636,7 +31588,7 @@
     </row>
     <row r="844" spans="10:17">
       <c r="J844" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K844">
         <v>0.0001231426472559548</v>
@@ -31662,7 +31614,7 @@
     </row>
     <row r="845" spans="10:17">
       <c r="J845" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K845">
         <v>0.0001231426472559548</v>
@@ -31688,7 +31640,7 @@
     </row>
     <row r="846" spans="10:17">
       <c r="J846" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K846">
         <v>0.0001231426472559548</v>
@@ -31714,7 +31666,7 @@
     </row>
     <row r="847" spans="10:17">
       <c r="J847" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K847">
         <v>0.0001231426472559548</v>
@@ -31740,7 +31692,7 @@
     </row>
     <row r="848" spans="10:17">
       <c r="J848" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K848">
         <v>9.100190772345327E-05</v>
@@ -31766,7 +31718,7 @@
     </row>
     <row r="849" spans="10:17">
       <c r="J849" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K849">
         <v>9.100190772345327E-05</v>
@@ -31792,7 +31744,7 @@
     </row>
     <row r="850" spans="10:17">
       <c r="J850" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K850">
         <v>8.33521197125958E-05</v>
@@ -31818,7 +31770,7 @@
     </row>
     <row r="851" spans="10:17">
       <c r="J851" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K851">
         <v>8.33521197125958E-05</v>
@@ -31844,7 +31796,7 @@
     </row>
     <row r="852" spans="10:17">
       <c r="J852" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K852">
         <v>8.33521197125958E-05</v>
@@ -31870,7 +31822,7 @@
     </row>
     <row r="853" spans="10:17">
       <c r="J853" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K853">
         <v>8.33521197125958E-05</v>
@@ -31896,7 +31848,7 @@
     </row>
     <row r="854" spans="10:17">
       <c r="J854" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K854">
         <v>8.33521197125958E-05</v>
@@ -31922,7 +31874,7 @@
     </row>
     <row r="855" spans="10:17">
       <c r="J855" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K855">
         <v>8.33521197125958E-05</v>
@@ -31948,7 +31900,7 @@
     </row>
     <row r="856" spans="10:17">
       <c r="J856" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K856">
         <v>8.33521197125958E-05</v>
@@ -31974,7 +31926,7 @@
     </row>
     <row r="857" spans="10:17">
       <c r="J857" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K857">
         <v>8.33521197125958E-05</v>
@@ -32000,7 +31952,7 @@
     </row>
     <row r="858" spans="10:17">
       <c r="J858" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K858">
         <v>8.33521197125958E-05</v>
@@ -32026,7 +31978,7 @@
     </row>
     <row r="859" spans="10:17">
       <c r="J859" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K859">
         <v>8.33521197125958E-05</v>
@@ -32052,7 +32004,7 @@
     </row>
     <row r="860" spans="10:17">
       <c r="J860" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K860">
         <v>4.632035693287948E-05</v>
@@ -32078,7 +32030,7 @@
     </row>
     <row r="861" spans="10:17">
       <c r="J861" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K861">
         <v>4.632035693287948E-05</v>
@@ -32104,7 +32056,7 @@
     </row>
     <row r="862" spans="10:17">
       <c r="J862" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K862">
         <v>4.632035693287948E-05</v>
@@ -32130,7 +32082,7 @@
     </row>
     <row r="863" spans="10:17">
       <c r="J863" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K863">
         <v>4.632035693287948E-05</v>
@@ -32156,7 +32108,7 @@
     </row>
     <row r="864" spans="10:17">
       <c r="J864" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K864">
         <v>4.632035693287948E-05</v>
@@ -32182,7 +32134,7 @@
     </row>
     <row r="865" spans="10:17">
       <c r="J865" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K865">
         <v>4.632035693287948E-05</v>
@@ -32208,7 +32160,7 @@
     </row>
     <row r="866" spans="10:17">
       <c r="J866" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K866">
         <v>4.632035693287948E-05</v>
@@ -32234,7 +32186,7 @@
     </row>
     <row r="867" spans="10:17">
       <c r="J867" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K867">
         <v>4.632035693287948E-05</v>
@@ -32260,7 +32212,7 @@
     </row>
     <row r="868" spans="10:17">
       <c r="J868" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K868">
         <v>4.632035693287948E-05</v>
@@ -32286,7 +32238,7 @@
     </row>
     <row r="869" spans="10:17">
       <c r="J869" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K869">
         <v>4.632035693287948E-05</v>
@@ -32312,7 +32264,7 @@
     </row>
     <row r="870" spans="10:17">
       <c r="J870" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K870">
         <v>4.445298781109281E-05</v>
@@ -32338,7 +32290,7 @@
     </row>
     <row r="871" spans="10:17">
       <c r="J871" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K871">
         <v>2.66631082439145E-05</v>
@@ -32364,7 +32316,7 @@
     </row>
     <row r="872" spans="10:17">
       <c r="J872" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K872">
         <v>2.177033671806228E-05</v>
@@ -32390,7 +32342,7 @@
     </row>
     <row r="873" spans="10:17">
       <c r="J873" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K873">
         <v>1.539395272205641E-05</v>
@@ -32416,7 +32368,7 @@
     </row>
     <row r="874" spans="10:17">
       <c r="J874" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K874">
         <v>1.539395272205641E-05</v>
@@ -32442,7 +32394,7 @@
     </row>
     <row r="875" spans="10:17">
       <c r="J875" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K875">
         <v>1.539395272205641E-05</v>
@@ -32468,7 +32420,7 @@
     </row>
     <row r="876" spans="10:17">
       <c r="J876" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K876">
         <v>1.539395272205641E-05</v>
@@ -32494,7 +32446,7 @@
     </row>
     <row r="877" spans="10:17">
       <c r="J877" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K877">
         <v>1.539395272205641E-05</v>
@@ -32520,7 +32472,7 @@
     </row>
     <row r="878" spans="10:17">
       <c r="J878" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K878">
         <v>1.539395272205641E-05</v>
@@ -32546,7 +32498,7 @@
     </row>
     <row r="879" spans="10:17">
       <c r="J879" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K879">
         <v>1.539395272205641E-05</v>
@@ -32572,7 +32524,7 @@
     </row>
     <row r="880" spans="10:17">
       <c r="J880" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K880">
         <v>1.539395272205641E-05</v>
@@ -32598,7 +32550,7 @@
     </row>
     <row r="881" spans="10:17">
       <c r="J881" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K881">
         <v>1.539395272205641E-05</v>
@@ -32624,7 +32576,7 @@
     </row>
     <row r="882" spans="10:17">
       <c r="J882" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K882">
         <v>1.539395272205641E-05</v>
@@ -32650,7 +32602,7 @@
     </row>
     <row r="883" spans="10:17">
       <c r="J883" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K883">
         <v>1.539395272205641E-05</v>
@@ -32676,7 +32628,7 @@
     </row>
     <row r="884" spans="10:17">
       <c r="J884" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K884">
         <v>1.539395272205641E-05</v>
@@ -32702,7 +32654,7 @@
     </row>
     <row r="885" spans="10:17">
       <c r="J885" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K885">
         <v>1.539395272205641E-05</v>
@@ -32728,7 +32680,7 @@
     </row>
     <row r="886" spans="10:17">
       <c r="J886" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K886">
         <v>1.539395272205641E-05</v>
@@ -32754,7 +32706,7 @@
     </row>
     <row r="887" spans="10:17">
       <c r="J887" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K887">
         <v>1.088516835903103E-05</v>
@@ -32780,7 +32732,7 @@
     </row>
     <row r="888" spans="10:17">
       <c r="J888" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K888">
         <v>1.088516835903103E-05</v>
@@ -32806,7 +32758,7 @@
     </row>
     <row r="889" spans="10:17">
       <c r="J889" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K889">
         <v>1.088516835903103E-05</v>
@@ -32832,7 +32784,7 @@
     </row>
     <row r="890" spans="10:17">
       <c r="J890" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K890">
         <v>6.514901389548724E-06</v>
@@ -32858,7 +32810,7 @@
     </row>
     <row r="891" spans="10:17">
       <c r="J891" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K891">
         <v>3.796649683708082E-06</v>
@@ -32884,7 +32836,7 @@
     </row>
     <row r="892" spans="10:17">
       <c r="J892" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K892">
         <v>0</v>
@@ -32910,7 +32862,7 @@
     </row>
     <row r="893" spans="10:17">
       <c r="J893" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K893">
         <v>0</v>
@@ -32936,7 +32888,7 @@
     </row>
     <row r="894" spans="10:17">
       <c r="J894" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K894">
         <v>0</v>
@@ -32962,7 +32914,7 @@
     </row>
     <row r="895" spans="10:17">
       <c r="J895" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K895">
         <v>0</v>
@@ -32988,7 +32940,7 @@
     </row>
     <row r="896" spans="10:17">
       <c r="J896" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K896">
         <v>0</v>
@@ -33014,7 +32966,7 @@
     </row>
     <row r="897" spans="10:17">
       <c r="J897" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K897">
         <v>0</v>
@@ -33040,7 +32992,7 @@
     </row>
     <row r="898" spans="10:17">
       <c r="J898" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K898">
         <v>0</v>
@@ -33066,7 +33018,7 @@
     </row>
     <row r="899" spans="10:17">
       <c r="J899" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K899">
         <v>0</v>
@@ -33092,7 +33044,7 @@
     </row>
     <row r="900" spans="10:17">
       <c r="J900" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K900">
         <v>0</v>
@@ -33118,7 +33070,7 @@
     </row>
     <row r="901" spans="10:17">
       <c r="J901" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K901">
         <v>0</v>
@@ -33144,7 +33096,7 @@
     </row>
     <row r="902" spans="10:17">
       <c r="J902" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K902">
         <v>0</v>
@@ -33170,7 +33122,7 @@
     </row>
     <row r="903" spans="10:17">
       <c r="J903" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K903">
         <v>0</v>
@@ -33196,7 +33148,7 @@
     </row>
     <row r="904" spans="10:17">
       <c r="J904" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K904">
         <v>0</v>
@@ -33222,7 +33174,7 @@
     </row>
     <row r="905" spans="10:17">
       <c r="J905" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K905">
         <v>0</v>
